--- a/medicine/Mort/Suicide_par_pilote/Suicide_par_pilote.xlsx
+++ b/medicine/Mort/Suicide_par_pilote/Suicide_par_pilote.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le suicide en avion concerne plusieurs types de comportement par lesquels des individus solitaires ou en petit groupe ont décidé de précipiter un avion au sol ou contre un autre appareil, pour mettre fin à leur vie et à celles d'autres éventuels passagers ou personnes au sol, en détruisant parfois des cibles.
 De tels actes constituent environ un pour cent de toutes les catastrophes aériennes enregistrées[réf. nécessaire].
@@ -514,10 +526,12 @@
           <t>Typologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les suicides par avion se divisent en deux catégories : les suicides à proprement parler et les meurtres-suicides, commis dans le but de tuer un maximum de personnes (terrorisme ou acte de guerre)[1].
-Une étude de 2016 recense 65 cas où le pilote a utilisé un avion pour se suicider (ainsi que 6 cas où des passagers ont sauté délibérément d'un avion) ; 18 meurtres-suicides perpétrés avec un avion ont également été recensés, entraînant la mort de 732 personnes[1]. Pour des raisons méthodologiques, l'étude choisit délibérément d'écarter les cas d'attentats-suicides terroristes tels que les attentats du 11 septembre 2001[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les suicides par avion se divisent en deux catégories : les suicides à proprement parler et les meurtres-suicides, commis dans le but de tuer un maximum de personnes (terrorisme ou acte de guerre).
+Une étude de 2016 recense 65 cas où le pilote a utilisé un avion pour se suicider (ainsi que 6 cas où des passagers ont sauté délibérément d'un avion) ; 18 meurtres-suicides perpétrés avec un avion ont également été recensés, entraînant la mort de 732 personnes. Pour des raisons méthodologiques, l'étude choisit délibérément d'écarter les cas d'attentats-suicides terroristes tels que les attentats du 11 septembre 2001.
 </t>
         </is>
       </c>
@@ -546,10 +560,12 @@
           <t>Attaques suicides pendant la Seconde Guerre mondiale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Un kamikaze[2], ou kamikazé (en japonais : 特別攻撃隊, とくべつこうげきたい, Tokubetsu kōgeki-tai), est un militaire de l'empire du Japon qui, durant la Seconde Guerre mondiale, effectuait une mission-suicide pendant la guerre du Pacifique.
+Un kamikaze, ou kamikazé (en japonais : 特別攻撃隊, とくべつこうげきたい, Tokubetsu kōgeki-tai), est un militaire de l'empire du Japon qui, durant la Seconde Guerre mondiale, effectuait une mission-suicide pendant la guerre du Pacifique.
 Il avait pour objectif d'écraser son avion (technique du Jibaku) ou son sous-marin sur les navires américains et alliés. C'était une tactique militaire désespérée pour livrer une charge explosive sur une cible avec une probabilité maximale d'atteinte.
 Le taran est une technique de combat aérien où un pilote crashe délibérément son appareil sur un autre avion afin de le détruire.
 </t>
@@ -580,7 +596,9 @@
           <t>Liste de suicides en avion</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette liste exclut les attaque-suicides en avion pendant la Seconde Guerre mondiale (voir section précédente).
 </t>
